--- a/Banco Central/11/1/4/Índice de ventas industrial 2000 a 2021 - Mensual.xlsx
+++ b/Banco Central/11/1/4/Índice de ventas industrial 2000 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <si>
     <t>Serie</t>
   </si>
@@ -797,6 +797,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1157,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D258"/>
+  <dimension ref="A1:D259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3426,7 +3429,7 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>95.89</v>
+        <v>95.88</v>
       </c>
       <c r="C212">
         <v>108.52</v>
@@ -3668,7 +3671,7 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>106.64</v>
+        <v>106.57</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3748,7 +3751,7 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>100.94</v>
+        <v>100.93</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3804,7 +3807,7 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>106.05</v>
+        <v>106.04</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3813,6 +3816,14 @@
       </c>
       <c r="B258">
         <v>106</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>261</v>
+      </c>
+      <c r="B259">
+        <v>106.05</v>
       </c>
     </row>
   </sheetData>
